--- a/Design and execution/(Comments)TestCases.xlsx
+++ b/Design and execution/(Comments)TestCases.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\PetStore\PetStore\Design and execution\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332261E7-EF8A-4085-A77E-A4AB537EFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgDHXt2vR+CBotgh/eRskgsj/oQfw=="/>
@@ -1078,32 +1087,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Poppins"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Poppins"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Poppins"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1114,7 +1124,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1124,12 +1134,19 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
@@ -1144,47 +1161,51 @@
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1374,32 +1395,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.13"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="14.5"/>
-    <col customWidth="1" min="4" max="4" width="40.13"/>
-    <col customWidth="1" min="5" max="5" width="26.75"/>
-    <col customWidth="1" min="6" max="6" width="37.13"/>
-    <col customWidth="1" min="7" max="7" width="44.5"/>
-    <col customWidth="1" min="9" max="9" width="19.0"/>
-    <col customWidth="1" min="10" max="10" width="21.63"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1429,7 +1455,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1477,7 +1503,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" ht="243.0" customHeight="1">
+    <row r="3" spans="1:28" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1525,7 +1551,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" ht="243.0" customHeight="1">
+    <row r="4" spans="1:28" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1573,7 +1599,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" ht="243.0" customHeight="1">
+    <row r="5" spans="1:28" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -1621,7 +1647,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" ht="243.0" customHeight="1">
+    <row r="6" spans="1:28" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>25</v>
@@ -1669,7 +1695,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" ht="246.0" customHeight="1">
+    <row r="7" spans="1:28" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -1717,7 +1743,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" ht="246.0" customHeight="1">
+    <row r="8" spans="1:28" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>34</v>
@@ -1765,7 +1791,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" ht="246.0" customHeight="1">
+    <row r="9" spans="1:28" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>37</v>
@@ -1813,7 +1839,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" ht="246.0" customHeight="1">
+    <row r="10" spans="1:28" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -1861,7 +1887,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" ht="246.0" customHeight="1">
+    <row r="11" spans="1:28" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -1909,7 +1935,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" ht="151.5" customHeight="1">
+    <row r="12" spans="1:28" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
         <v>49</v>
@@ -1957,7 +1983,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" ht="151.5" customHeight="1">
+    <row r="13" spans="1:28" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>54</v>
@@ -2005,7 +2031,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" ht="151.5" customHeight="1">
+    <row r="14" spans="1:28" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
         <v>58</v>
@@ -2053,7 +2079,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" ht="155.25" customHeight="1">
+    <row r="15" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>62</v>
@@ -2101,7 +2127,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" ht="155.25" customHeight="1">
+    <row r="16" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
         <v>67</v>
@@ -2147,7 +2173,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" ht="155.25" customHeight="1">
+    <row r="17" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>71</v>
@@ -2195,7 +2221,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" ht="96.0" customHeight="1">
+    <row r="18" spans="1:28" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>74</v>
@@ -2243,7 +2269,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" ht="96.0" customHeight="1">
+    <row r="19" spans="1:28" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>78</v>
@@ -2291,7 +2317,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" ht="96.0" customHeight="1">
+    <row r="20" spans="1:28" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
         <v>85</v>
@@ -2339,7 +2365,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" ht="96.0" customHeight="1">
+    <row r="21" spans="1:28" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
         <v>88</v>
@@ -2387,7 +2413,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" ht="165.75" customHeight="1">
+    <row r="22" spans="1:28" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
         <v>95</v>
@@ -2435,7 +2461,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" ht="174.0" customHeight="1">
+    <row r="23" spans="1:28" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
         <v>98</v>
@@ -2483,7 +2509,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" ht="135.75" customHeight="1">
+    <row r="24" spans="1:28" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
         <v>101</v>
@@ -2531,7 +2557,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" ht="135.75" customHeight="1">
+    <row r="25" spans="1:28" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>104</v>
@@ -2579,7 +2605,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
         <v>107</v>
@@ -2627,7 +2653,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
         <v>114</v>
@@ -2675,7 +2701,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>119</v>
@@ -2723,7 +2749,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
         <v>124</v>
@@ -2771,7 +2797,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>130</v>
@@ -2815,7 +2841,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>135</v>
@@ -2863,7 +2889,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
         <v>142</v>
@@ -2911,7 +2937,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
         <v>146</v>
@@ -2959,7 +2985,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2989,7 +3015,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3019,7 +3045,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3049,7 +3075,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3079,7 +3105,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3109,7 +3135,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3139,7 +3165,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3169,7 +3195,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3199,7 +3225,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3229,7 +3255,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3259,7 +3285,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3289,7 +3315,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3319,7 +3345,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3349,7 +3375,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3379,7 +3405,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3409,7 +3435,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3439,7 +3465,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3469,7 +3495,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3499,7 +3525,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3529,7 +3555,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3559,7 +3585,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3589,7 +3615,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3619,7 +3645,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3649,7 +3675,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3679,7 +3705,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3709,7 +3735,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3739,7 +3765,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3769,7 +3795,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3799,7 +3825,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3829,7 +3855,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3859,7 +3885,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3889,7 +3915,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3919,7 +3945,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3949,7 +3975,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3979,7 +4005,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4009,7 +4035,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4039,7 +4065,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4069,7 +4095,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4099,7 +4125,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4129,7 +4155,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4159,7 +4185,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4189,7 +4215,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4219,7 +4245,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4249,7 +4275,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4279,7 +4305,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4309,7 +4335,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4339,7 +4365,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4369,7 +4395,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4399,7 +4425,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4429,7 +4455,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4459,7 +4485,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4489,7 +4515,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4519,7 +4545,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4549,7 +4575,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4579,7 +4605,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4609,7 +4635,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4639,7 +4665,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4669,7 +4695,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4699,7 +4725,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4729,7 +4755,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4759,7 +4785,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4789,7 +4815,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4819,7 +4845,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4849,7 +4875,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4879,7 +4905,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4909,7 +4935,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4939,7 +4965,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4969,7 +4995,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4999,7 +5025,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5029,7 +5055,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5059,7 +5085,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5089,7 +5115,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5119,7 +5145,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5149,7 +5175,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5179,7 +5205,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5209,7 +5235,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5239,7 +5265,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5269,7 +5295,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5299,7 +5325,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5329,7 +5355,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5359,7 +5385,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5389,7 +5415,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5419,7 +5445,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5449,7 +5475,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5479,7 +5505,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5509,7 +5535,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5539,7 +5565,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5569,7 +5595,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5599,7 +5625,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5629,7 +5655,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5659,7 +5685,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5689,7 +5715,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5719,7 +5745,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5749,7 +5775,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5779,7 +5805,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5809,7 +5835,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5839,7 +5865,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5869,7 +5895,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5899,7 +5925,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5929,7 +5955,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5959,7 +5985,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5989,7 +6015,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6019,7 +6045,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6049,7 +6075,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6079,7 +6105,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6109,7 +6135,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6139,7 +6165,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6169,7 +6195,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6199,7 +6225,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6229,7 +6255,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6259,7 +6285,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6289,7 +6315,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6319,7 +6345,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6349,7 +6375,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6379,7 +6405,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6409,7 +6435,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6439,7 +6465,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6469,7 +6495,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6499,7 +6525,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6529,7 +6555,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6559,7 +6585,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6589,7 +6615,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6619,7 +6645,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6649,7 +6675,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6679,7 +6705,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6709,7 +6735,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6739,7 +6765,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6769,7 +6795,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6799,7 +6825,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6829,7 +6855,7 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6859,7 +6885,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6889,7 +6915,7 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6919,7 +6945,7 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6949,7 +6975,7 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6979,7 +7005,7 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7009,7 +7035,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7039,7 +7065,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7069,7 +7095,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7099,7 +7125,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7129,7 +7155,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7159,7 +7185,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7189,7 +7215,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7219,7 +7245,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7249,7 +7275,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7279,7 +7305,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7309,7 +7335,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7339,7 +7365,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7369,7 +7395,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7399,7 +7425,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7429,7 +7455,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7459,7 +7485,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7489,7 +7515,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7519,7 +7545,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7549,7 +7575,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7579,7 +7605,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7609,7 +7635,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7639,7 +7665,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7669,7 +7695,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7699,7 +7725,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7729,7 +7755,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7759,7 +7785,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7789,7 +7815,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7819,7 +7845,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7849,7 +7875,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7879,7 +7905,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7909,7 +7935,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7939,7 +7965,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7969,7 +7995,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7999,7 +8025,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8029,7 +8055,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8059,7 +8085,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8089,7 +8115,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8119,7 +8145,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8149,7 +8175,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8179,7 +8205,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8209,7 +8235,7 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8239,7 +8265,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8269,7 +8295,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8299,7 +8325,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8329,7 +8355,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8359,7 +8385,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8389,7 +8415,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8419,7 +8445,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8449,7 +8475,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8479,7 +8505,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8509,7 +8535,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8539,7 +8565,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8569,7 +8595,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8599,7 +8625,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8629,7 +8655,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8659,7 +8685,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8689,7 +8715,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8719,7 +8745,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8749,7 +8775,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8779,7 +8805,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8809,7 +8835,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8839,7 +8865,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8869,7 +8895,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8899,7 +8925,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8929,7 +8955,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8959,7 +8985,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -8989,7 +9015,7 @@
       <c r="AA234" s="6"/>
       <c r="AB234" s="6"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -9019,7 +9045,7 @@
       <c r="AA235" s="6"/>
       <c r="AB235" s="6"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -9049,7 +9075,7 @@
       <c r="AA236" s="6"/>
       <c r="AB236" s="6"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -9079,7 +9105,7 @@
       <c r="AA237" s="6"/>
       <c r="AB237" s="6"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -9109,7 +9135,7 @@
       <c r="AA238" s="6"/>
       <c r="AB238" s="6"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -9139,7 +9165,7 @@
       <c r="AA239" s="6"/>
       <c r="AB239" s="6"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -9169,7 +9195,7 @@
       <c r="AA240" s="6"/>
       <c r="AB240" s="6"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -9199,7 +9225,7 @@
       <c r="AA241" s="6"/>
       <c r="AB241" s="6"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -9229,7 +9255,7 @@
       <c r="AA242" s="6"/>
       <c r="AB242" s="6"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -9259,7 +9285,7 @@
       <c r="AA243" s="6"/>
       <c r="AB243" s="6"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -9289,7 +9315,7 @@
       <c r="AA244" s="6"/>
       <c r="AB244" s="6"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -9319,7 +9345,7 @@
       <c r="AA245" s="6"/>
       <c r="AB245" s="6"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -9349,7 +9375,7 @@
       <c r="AA246" s="6"/>
       <c r="AB246" s="6"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -9379,7 +9405,7 @@
       <c r="AA247" s="6"/>
       <c r="AB247" s="6"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -9409,7 +9435,7 @@
       <c r="AA248" s="6"/>
       <c r="AB248" s="6"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -9439,7 +9465,7 @@
       <c r="AA249" s="6"/>
       <c r="AB249" s="6"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -9469,7 +9495,7 @@
       <c r="AA250" s="6"/>
       <c r="AB250" s="6"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -9499,7 +9525,7 @@
       <c r="AA251" s="6"/>
       <c r="AB251" s="6"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -9529,7 +9555,7 @@
       <c r="AA252" s="6"/>
       <c r="AB252" s="6"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -9559,7 +9585,7 @@
       <c r="AA253" s="6"/>
       <c r="AB253" s="6"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -9589,7 +9615,7 @@
       <c r="AA254" s="6"/>
       <c r="AB254" s="6"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -9619,7 +9645,7 @@
       <c r="AA255" s="6"/>
       <c r="AB255" s="6"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -9649,7 +9675,7 @@
       <c r="AA256" s="6"/>
       <c r="AB256" s="6"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -9679,7 +9705,7 @@
       <c r="AA257" s="6"/>
       <c r="AB257" s="6"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -9709,7 +9735,7 @@
       <c r="AA258" s="6"/>
       <c r="AB258" s="6"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -9739,7 +9765,7 @@
       <c r="AA259" s="6"/>
       <c r="AB259" s="6"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -9769,7 +9795,7 @@
       <c r="AA260" s="6"/>
       <c r="AB260" s="6"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -9799,7 +9825,7 @@
       <c r="AA261" s="6"/>
       <c r="AB261" s="6"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -9829,7 +9855,7 @@
       <c r="AA262" s="6"/>
       <c r="AB262" s="6"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -9859,7 +9885,7 @@
       <c r="AA263" s="6"/>
       <c r="AB263" s="6"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -9889,7 +9915,7 @@
       <c r="AA264" s="6"/>
       <c r="AB264" s="6"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -9919,7 +9945,7 @@
       <c r="AA265" s="6"/>
       <c r="AB265" s="6"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -9949,7 +9975,7 @@
       <c r="AA266" s="6"/>
       <c r="AB266" s="6"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -9979,7 +10005,7 @@
       <c r="AA267" s="6"/>
       <c r="AB267" s="6"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -10009,7 +10035,7 @@
       <c r="AA268" s="6"/>
       <c r="AB268" s="6"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -10039,7 +10065,7 @@
       <c r="AA269" s="6"/>
       <c r="AB269" s="6"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -10069,7 +10095,7 @@
       <c r="AA270" s="6"/>
       <c r="AB270" s="6"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -10099,7 +10125,7 @@
       <c r="AA271" s="6"/>
       <c r="AB271" s="6"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -10129,7 +10155,7 @@
       <c r="AA272" s="6"/>
       <c r="AB272" s="6"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -10159,7 +10185,7 @@
       <c r="AA273" s="6"/>
       <c r="AB273" s="6"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -10189,7 +10215,7 @@
       <c r="AA274" s="6"/>
       <c r="AB274" s="6"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -10219,7 +10245,7 @@
       <c r="AA275" s="6"/>
       <c r="AB275" s="6"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -10249,7 +10275,7 @@
       <c r="AA276" s="6"/>
       <c r="AB276" s="6"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -10279,7 +10305,7 @@
       <c r="AA277" s="6"/>
       <c r="AB277" s="6"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -10309,7 +10335,7 @@
       <c r="AA278" s="6"/>
       <c r="AB278" s="6"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -10339,7 +10365,7 @@
       <c r="AA279" s="6"/>
       <c r="AB279" s="6"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -10369,7 +10395,7 @@
       <c r="AA280" s="6"/>
       <c r="AB280" s="6"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -10399,7 +10425,7 @@
       <c r="AA281" s="6"/>
       <c r="AB281" s="6"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -10429,7 +10455,7 @@
       <c r="AA282" s="6"/>
       <c r="AB282" s="6"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -10459,7 +10485,7 @@
       <c r="AA283" s="6"/>
       <c r="AB283" s="6"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -10489,7 +10515,7 @@
       <c r="AA284" s="6"/>
       <c r="AB284" s="6"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -10519,7 +10545,7 @@
       <c r="AA285" s="6"/>
       <c r="AB285" s="6"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -10549,7 +10575,7 @@
       <c r="AA286" s="6"/>
       <c r="AB286" s="6"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -10579,7 +10605,7 @@
       <c r="AA287" s="6"/>
       <c r="AB287" s="6"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -10609,7 +10635,7 @@
       <c r="AA288" s="6"/>
       <c r="AB288" s="6"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -10639,7 +10665,7 @@
       <c r="AA289" s="6"/>
       <c r="AB289" s="6"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -10669,7 +10695,7 @@
       <c r="AA290" s="6"/>
       <c r="AB290" s="6"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -10699,7 +10725,7 @@
       <c r="AA291" s="6"/>
       <c r="AB291" s="6"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -10729,7 +10755,7 @@
       <c r="AA292" s="6"/>
       <c r="AB292" s="6"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -10759,7 +10785,7 @@
       <c r="AA293" s="6"/>
       <c r="AB293" s="6"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -10789,7 +10815,7 @@
       <c r="AA294" s="6"/>
       <c r="AB294" s="6"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -10819,7 +10845,7 @@
       <c r="AA295" s="6"/>
       <c r="AB295" s="6"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -10849,7 +10875,7 @@
       <c r="AA296" s="6"/>
       <c r="AB296" s="6"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -10879,7 +10905,7 @@
       <c r="AA297" s="6"/>
       <c r="AB297" s="6"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -10909,7 +10935,7 @@
       <c r="AA298" s="6"/>
       <c r="AB298" s="6"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -10939,7 +10965,7 @@
       <c r="AA299" s="6"/>
       <c r="AB299" s="6"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -10969,7 +10995,7 @@
       <c r="AA300" s="6"/>
       <c r="AB300" s="6"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -10999,7 +11025,7 @@
       <c r="AA301" s="6"/>
       <c r="AB301" s="6"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -11029,7 +11055,7 @@
       <c r="AA302" s="6"/>
       <c r="AB302" s="6"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -11059,7 +11085,7 @@
       <c r="AA303" s="6"/>
       <c r="AB303" s="6"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -11089,7 +11115,7 @@
       <c r="AA304" s="6"/>
       <c r="AB304" s="6"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -11119,7 +11145,7 @@
       <c r="AA305" s="6"/>
       <c r="AB305" s="6"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -11149,7 +11175,7 @@
       <c r="AA306" s="6"/>
       <c r="AB306" s="6"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -11179,7 +11205,7 @@
       <c r="AA307" s="6"/>
       <c r="AB307" s="6"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -11209,7 +11235,7 @@
       <c r="AA308" s="6"/>
       <c r="AB308" s="6"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -11239,7 +11265,7 @@
       <c r="AA309" s="6"/>
       <c r="AB309" s="6"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -11269,7 +11295,7 @@
       <c r="AA310" s="6"/>
       <c r="AB310" s="6"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -11299,7 +11325,7 @@
       <c r="AA311" s="6"/>
       <c r="AB311" s="6"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -11329,7 +11355,7 @@
       <c r="AA312" s="6"/>
       <c r="AB312" s="6"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -11359,7 +11385,7 @@
       <c r="AA313" s="6"/>
       <c r="AB313" s="6"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -11389,7 +11415,7 @@
       <c r="AA314" s="6"/>
       <c r="AB314" s="6"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -11419,7 +11445,7 @@
       <c r="AA315" s="6"/>
       <c r="AB315" s="6"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -11449,7 +11475,7 @@
       <c r="AA316" s="6"/>
       <c r="AB316" s="6"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -11479,7 +11505,7 @@
       <c r="AA317" s="6"/>
       <c r="AB317" s="6"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -11509,7 +11535,7 @@
       <c r="AA318" s="6"/>
       <c r="AB318" s="6"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -11539,7 +11565,7 @@
       <c r="AA319" s="6"/>
       <c r="AB319" s="6"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -11569,7 +11595,7 @@
       <c r="AA320" s="6"/>
       <c r="AB320" s="6"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -11599,7 +11625,7 @@
       <c r="AA321" s="6"/>
       <c r="AB321" s="6"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -11629,7 +11655,7 @@
       <c r="AA322" s="6"/>
       <c r="AB322" s="6"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -11659,7 +11685,7 @@
       <c r="AA323" s="6"/>
       <c r="AB323" s="6"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -11689,7 +11715,7 @@
       <c r="AA324" s="6"/>
       <c r="AB324" s="6"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -11719,7 +11745,7 @@
       <c r="AA325" s="6"/>
       <c r="AB325" s="6"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -11749,7 +11775,7 @@
       <c r="AA326" s="6"/>
       <c r="AB326" s="6"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -11779,7 +11805,7 @@
       <c r="AA327" s="6"/>
       <c r="AB327" s="6"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -11809,7 +11835,7 @@
       <c r="AA328" s="6"/>
       <c r="AB328" s="6"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -11839,7 +11865,7 @@
       <c r="AA329" s="6"/>
       <c r="AB329" s="6"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -11869,7 +11895,7 @@
       <c r="AA330" s="6"/>
       <c r="AB330" s="6"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -11899,7 +11925,7 @@
       <c r="AA331" s="6"/>
       <c r="AB331" s="6"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -11929,7 +11955,7 @@
       <c r="AA332" s="6"/>
       <c r="AB332" s="6"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -11959,7 +11985,7 @@
       <c r="AA333" s="6"/>
       <c r="AB333" s="6"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -11989,7 +12015,7 @@
       <c r="AA334" s="6"/>
       <c r="AB334" s="6"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -12019,7 +12045,7 @@
       <c r="AA335" s="6"/>
       <c r="AB335" s="6"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -12049,7 +12075,7 @@
       <c r="AA336" s="6"/>
       <c r="AB336" s="6"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -12079,7 +12105,7 @@
       <c r="AA337" s="6"/>
       <c r="AB337" s="6"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -12109,7 +12135,7 @@
       <c r="AA338" s="6"/>
       <c r="AB338" s="6"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -12139,7 +12165,7 @@
       <c r="AA339" s="6"/>
       <c r="AB339" s="6"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -12169,7 +12195,7 @@
       <c r="AA340" s="6"/>
       <c r="AB340" s="6"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -12199,7 +12225,7 @@
       <c r="AA341" s="6"/>
       <c r="AB341" s="6"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -12229,7 +12255,7 @@
       <c r="AA342" s="6"/>
       <c r="AB342" s="6"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -12259,7 +12285,7 @@
       <c r="AA343" s="6"/>
       <c r="AB343" s="6"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -12289,7 +12315,7 @@
       <c r="AA344" s="6"/>
       <c r="AB344" s="6"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -12319,7 +12345,7 @@
       <c r="AA345" s="6"/>
       <c r="AB345" s="6"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -12349,7 +12375,7 @@
       <c r="AA346" s="6"/>
       <c r="AB346" s="6"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -12379,7 +12405,7 @@
       <c r="AA347" s="6"/>
       <c r="AB347" s="6"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -12409,7 +12435,7 @@
       <c r="AA348" s="6"/>
       <c r="AB348" s="6"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -12439,7 +12465,7 @@
       <c r="AA349" s="6"/>
       <c r="AB349" s="6"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -12469,7 +12495,7 @@
       <c r="AA350" s="6"/>
       <c r="AB350" s="6"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -12499,7 +12525,7 @@
       <c r="AA351" s="6"/>
       <c r="AB351" s="6"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -12529,7 +12555,7 @@
       <c r="AA352" s="6"/>
       <c r="AB352" s="6"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -12559,7 +12585,7 @@
       <c r="AA353" s="6"/>
       <c r="AB353" s="6"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -12589,7 +12615,7 @@
       <c r="AA354" s="6"/>
       <c r="AB354" s="6"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -12619,7 +12645,7 @@
       <c r="AA355" s="6"/>
       <c r="AB355" s="6"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -12649,7 +12675,7 @@
       <c r="AA356" s="6"/>
       <c r="AB356" s="6"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -12679,7 +12705,7 @@
       <c r="AA357" s="6"/>
       <c r="AB357" s="6"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -12709,7 +12735,7 @@
       <c r="AA358" s="6"/>
       <c r="AB358" s="6"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -12739,7 +12765,7 @@
       <c r="AA359" s="6"/>
       <c r="AB359" s="6"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -12769,7 +12795,7 @@
       <c r="AA360" s="6"/>
       <c r="AB360" s="6"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -12799,7 +12825,7 @@
       <c r="AA361" s="6"/>
       <c r="AB361" s="6"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -12829,7 +12855,7 @@
       <c r="AA362" s="6"/>
       <c r="AB362" s="6"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -12859,7 +12885,7 @@
       <c r="AA363" s="6"/>
       <c r="AB363" s="6"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -12889,7 +12915,7 @@
       <c r="AA364" s="6"/>
       <c r="AB364" s="6"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -12919,7 +12945,7 @@
       <c r="AA365" s="6"/>
       <c r="AB365" s="6"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -12949,7 +12975,7 @@
       <c r="AA366" s="6"/>
       <c r="AB366" s="6"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -12979,7 +13005,7 @@
       <c r="AA367" s="6"/>
       <c r="AB367" s="6"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -13009,7 +13035,7 @@
       <c r="AA368" s="6"/>
       <c r="AB368" s="6"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -13039,7 +13065,7 @@
       <c r="AA369" s="6"/>
       <c r="AB369" s="6"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -13069,7 +13095,7 @@
       <c r="AA370" s="6"/>
       <c r="AB370" s="6"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -13099,7 +13125,7 @@
       <c r="AA371" s="6"/>
       <c r="AB371" s="6"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -13129,7 +13155,7 @@
       <c r="AA372" s="6"/>
       <c r="AB372" s="6"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -13159,7 +13185,7 @@
       <c r="AA373" s="6"/>
       <c r="AB373" s="6"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -13189,7 +13215,7 @@
       <c r="AA374" s="6"/>
       <c r="AB374" s="6"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -13219,7 +13245,7 @@
       <c r="AA375" s="6"/>
       <c r="AB375" s="6"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -13249,7 +13275,7 @@
       <c r="AA376" s="6"/>
       <c r="AB376" s="6"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -13279,7 +13305,7 @@
       <c r="AA377" s="6"/>
       <c r="AB377" s="6"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -13309,7 +13335,7 @@
       <c r="AA378" s="6"/>
       <c r="AB378" s="6"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -13339,7 +13365,7 @@
       <c r="AA379" s="6"/>
       <c r="AB379" s="6"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -13369,7 +13395,7 @@
       <c r="AA380" s="6"/>
       <c r="AB380" s="6"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -13399,7 +13425,7 @@
       <c r="AA381" s="6"/>
       <c r="AB381" s="6"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -13429,7 +13455,7 @@
       <c r="AA382" s="6"/>
       <c r="AB382" s="6"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -13459,7 +13485,7 @@
       <c r="AA383" s="6"/>
       <c r="AB383" s="6"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -13489,7 +13515,7 @@
       <c r="AA384" s="6"/>
       <c r="AB384" s="6"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -13519,7 +13545,7 @@
       <c r="AA385" s="6"/>
       <c r="AB385" s="6"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -13549,7 +13575,7 @@
       <c r="AA386" s="6"/>
       <c r="AB386" s="6"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -13579,7 +13605,7 @@
       <c r="AA387" s="6"/>
       <c r="AB387" s="6"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -13609,7 +13635,7 @@
       <c r="AA388" s="6"/>
       <c r="AB388" s="6"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -13639,7 +13665,7 @@
       <c r="AA389" s="6"/>
       <c r="AB389" s="6"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -13669,7 +13695,7 @@
       <c r="AA390" s="6"/>
       <c r="AB390" s="6"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -13699,7 +13725,7 @@
       <c r="AA391" s="6"/>
       <c r="AB391" s="6"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -13729,7 +13755,7 @@
       <c r="AA392" s="6"/>
       <c r="AB392" s="6"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -13759,7 +13785,7 @@
       <c r="AA393" s="6"/>
       <c r="AB393" s="6"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -13789,7 +13815,7 @@
       <c r="AA394" s="6"/>
       <c r="AB394" s="6"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -13819,7 +13845,7 @@
       <c r="AA395" s="6"/>
       <c r="AB395" s="6"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -13849,7 +13875,7 @@
       <c r="AA396" s="6"/>
       <c r="AB396" s="6"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -13879,7 +13905,7 @@
       <c r="AA397" s="6"/>
       <c r="AB397" s="6"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -13909,7 +13935,7 @@
       <c r="AA398" s="6"/>
       <c r="AB398" s="6"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -13939,7 +13965,7 @@
       <c r="AA399" s="6"/>
       <c r="AB399" s="6"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -13969,7 +13995,7 @@
       <c r="AA400" s="6"/>
       <c r="AB400" s="6"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -13999,7 +14025,7 @@
       <c r="AA401" s="6"/>
       <c r="AB401" s="6"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -14029,7 +14055,7 @@
       <c r="AA402" s="6"/>
       <c r="AB402" s="6"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -14059,7 +14085,7 @@
       <c r="AA403" s="6"/>
       <c r="AB403" s="6"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -14089,7 +14115,7 @@
       <c r="AA404" s="6"/>
       <c r="AB404" s="6"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -14119,7 +14145,7 @@
       <c r="AA405" s="6"/>
       <c r="AB405" s="6"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -14149,7 +14175,7 @@
       <c r="AA406" s="6"/>
       <c r="AB406" s="6"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -14179,7 +14205,7 @@
       <c r="AA407" s="6"/>
       <c r="AB407" s="6"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -14209,7 +14235,7 @@
       <c r="AA408" s="6"/>
       <c r="AB408" s="6"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -14239,7 +14265,7 @@
       <c r="AA409" s="6"/>
       <c r="AB409" s="6"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -14269,7 +14295,7 @@
       <c r="AA410" s="6"/>
       <c r="AB410" s="6"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -14299,7 +14325,7 @@
       <c r="AA411" s="6"/>
       <c r="AB411" s="6"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -14329,7 +14355,7 @@
       <c r="AA412" s="6"/>
       <c r="AB412" s="6"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -14359,7 +14385,7 @@
       <c r="AA413" s="6"/>
       <c r="AB413" s="6"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -14389,7 +14415,7 @@
       <c r="AA414" s="6"/>
       <c r="AB414" s="6"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -14419,7 +14445,7 @@
       <c r="AA415" s="6"/>
       <c r="AB415" s="6"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -14449,7 +14475,7 @@
       <c r="AA416" s="6"/>
       <c r="AB416" s="6"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -14479,7 +14505,7 @@
       <c r="AA417" s="6"/>
       <c r="AB417" s="6"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -14509,7 +14535,7 @@
       <c r="AA418" s="6"/>
       <c r="AB418" s="6"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -14539,7 +14565,7 @@
       <c r="AA419" s="6"/>
       <c r="AB419" s="6"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -14569,7 +14595,7 @@
       <c r="AA420" s="6"/>
       <c r="AB420" s="6"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -14599,7 +14625,7 @@
       <c r="AA421" s="6"/>
       <c r="AB421" s="6"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -14629,7 +14655,7 @@
       <c r="AA422" s="6"/>
       <c r="AB422" s="6"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -14659,7 +14685,7 @@
       <c r="AA423" s="6"/>
       <c r="AB423" s="6"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -14689,7 +14715,7 @@
       <c r="AA424" s="6"/>
       <c r="AB424" s="6"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -14719,7 +14745,7 @@
       <c r="AA425" s="6"/>
       <c r="AB425" s="6"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -14749,7 +14775,7 @@
       <c r="AA426" s="6"/>
       <c r="AB426" s="6"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -14779,7 +14805,7 @@
       <c r="AA427" s="6"/>
       <c r="AB427" s="6"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -14809,7 +14835,7 @@
       <c r="AA428" s="6"/>
       <c r="AB428" s="6"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -14839,7 +14865,7 @@
       <c r="AA429" s="6"/>
       <c r="AB429" s="6"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -14869,7 +14895,7 @@
       <c r="AA430" s="6"/>
       <c r="AB430" s="6"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -14899,7 +14925,7 @@
       <c r="AA431" s="6"/>
       <c r="AB431" s="6"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -14929,7 +14955,7 @@
       <c r="AA432" s="6"/>
       <c r="AB432" s="6"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -14959,7 +14985,7 @@
       <c r="AA433" s="6"/>
       <c r="AB433" s="6"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -14989,7 +15015,7 @@
       <c r="AA434" s="6"/>
       <c r="AB434" s="6"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -15019,7 +15045,7 @@
       <c r="AA435" s="6"/>
       <c r="AB435" s="6"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -15049,7 +15075,7 @@
       <c r="AA436" s="6"/>
       <c r="AB436" s="6"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -15079,7 +15105,7 @@
       <c r="AA437" s="6"/>
       <c r="AB437" s="6"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -15109,7 +15135,7 @@
       <c r="AA438" s="6"/>
       <c r="AB438" s="6"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -15139,7 +15165,7 @@
       <c r="AA439" s="6"/>
       <c r="AB439" s="6"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -15169,7 +15195,7 @@
       <c r="AA440" s="6"/>
       <c r="AB440" s="6"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -15199,7 +15225,7 @@
       <c r="AA441" s="6"/>
       <c r="AB441" s="6"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -15229,7 +15255,7 @@
       <c r="AA442" s="6"/>
       <c r="AB442" s="6"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -15259,7 +15285,7 @@
       <c r="AA443" s="6"/>
       <c r="AB443" s="6"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -15289,7 +15315,7 @@
       <c r="AA444" s="6"/>
       <c r="AB444" s="6"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -15319,7 +15345,7 @@
       <c r="AA445" s="6"/>
       <c r="AB445" s="6"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -15349,7 +15375,7 @@
       <c r="AA446" s="6"/>
       <c r="AB446" s="6"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -15379,7 +15405,7 @@
       <c r="AA447" s="6"/>
       <c r="AB447" s="6"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -15409,7 +15435,7 @@
       <c r="AA448" s="6"/>
       <c r="AB448" s="6"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -15439,7 +15465,7 @@
       <c r="AA449" s="6"/>
       <c r="AB449" s="6"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -15469,7 +15495,7 @@
       <c r="AA450" s="6"/>
       <c r="AB450" s="6"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -15499,7 +15525,7 @@
       <c r="AA451" s="6"/>
       <c r="AB451" s="6"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -15529,7 +15555,7 @@
       <c r="AA452" s="6"/>
       <c r="AB452" s="6"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -15559,7 +15585,7 @@
       <c r="AA453" s="6"/>
       <c r="AB453" s="6"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -15589,7 +15615,7 @@
       <c r="AA454" s="6"/>
       <c r="AB454" s="6"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -15619,7 +15645,7 @@
       <c r="AA455" s="6"/>
       <c r="AB455" s="6"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -15649,7 +15675,7 @@
       <c r="AA456" s="6"/>
       <c r="AB456" s="6"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -15679,7 +15705,7 @@
       <c r="AA457" s="6"/>
       <c r="AB457" s="6"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -15709,7 +15735,7 @@
       <c r="AA458" s="6"/>
       <c r="AB458" s="6"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -15739,7 +15765,7 @@
       <c r="AA459" s="6"/>
       <c r="AB459" s="6"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -15769,7 +15795,7 @@
       <c r="AA460" s="6"/>
       <c r="AB460" s="6"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -15799,7 +15825,7 @@
       <c r="AA461" s="6"/>
       <c r="AB461" s="6"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -15829,7 +15855,7 @@
       <c r="AA462" s="6"/>
       <c r="AB462" s="6"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -15859,7 +15885,7 @@
       <c r="AA463" s="6"/>
       <c r="AB463" s="6"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -15889,7 +15915,7 @@
       <c r="AA464" s="6"/>
       <c r="AB464" s="6"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -15919,7 +15945,7 @@
       <c r="AA465" s="6"/>
       <c r="AB465" s="6"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -15949,7 +15975,7 @@
       <c r="AA466" s="6"/>
       <c r="AB466" s="6"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -15979,7 +16005,7 @@
       <c r="AA467" s="6"/>
       <c r="AB467" s="6"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -16009,7 +16035,7 @@
       <c r="AA468" s="6"/>
       <c r="AB468" s="6"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -16039,7 +16065,7 @@
       <c r="AA469" s="6"/>
       <c r="AB469" s="6"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -16069,7 +16095,7 @@
       <c r="AA470" s="6"/>
       <c r="AB470" s="6"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -16099,7 +16125,7 @@
       <c r="AA471" s="6"/>
       <c r="AB471" s="6"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -16129,7 +16155,7 @@
       <c r="AA472" s="6"/>
       <c r="AB472" s="6"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -16159,7 +16185,7 @@
       <c r="AA473" s="6"/>
       <c r="AB473" s="6"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -16189,7 +16215,7 @@
       <c r="AA474" s="6"/>
       <c r="AB474" s="6"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -16219,7 +16245,7 @@
       <c r="AA475" s="6"/>
       <c r="AB475" s="6"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -16249,7 +16275,7 @@
       <c r="AA476" s="6"/>
       <c r="AB476" s="6"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -16279,7 +16305,7 @@
       <c r="AA477" s="6"/>
       <c r="AB477" s="6"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -16309,7 +16335,7 @@
       <c r="AA478" s="6"/>
       <c r="AB478" s="6"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -16339,7 +16365,7 @@
       <c r="AA479" s="6"/>
       <c r="AB479" s="6"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -16369,7 +16395,7 @@
       <c r="AA480" s="6"/>
       <c r="AB480" s="6"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -16399,7 +16425,7 @@
       <c r="AA481" s="6"/>
       <c r="AB481" s="6"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -16429,7 +16455,7 @@
       <c r="AA482" s="6"/>
       <c r="AB482" s="6"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -16459,7 +16485,7 @@
       <c r="AA483" s="6"/>
       <c r="AB483" s="6"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -16489,7 +16515,7 @@
       <c r="AA484" s="6"/>
       <c r="AB484" s="6"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -16519,7 +16545,7 @@
       <c r="AA485" s="6"/>
       <c r="AB485" s="6"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -16549,7 +16575,7 @@
       <c r="AA486" s="6"/>
       <c r="AB486" s="6"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -16579,7 +16605,7 @@
       <c r="AA487" s="6"/>
       <c r="AB487" s="6"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -16609,7 +16635,7 @@
       <c r="AA488" s="6"/>
       <c r="AB488" s="6"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -16639,7 +16665,7 @@
       <c r="AA489" s="6"/>
       <c r="AB489" s="6"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -16669,7 +16695,7 @@
       <c r="AA490" s="6"/>
       <c r="AB490" s="6"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -16699,7 +16725,7 @@
       <c r="AA491" s="6"/>
       <c r="AB491" s="6"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -16729,7 +16755,7 @@
       <c r="AA492" s="6"/>
       <c r="AB492" s="6"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -16759,7 +16785,7 @@
       <c r="AA493" s="6"/>
       <c r="AB493" s="6"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -16789,7 +16815,7 @@
       <c r="AA494" s="6"/>
       <c r="AB494" s="6"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -16819,7 +16845,7 @@
       <c r="AA495" s="6"/>
       <c r="AB495" s="6"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -16849,7 +16875,7 @@
       <c r="AA496" s="6"/>
       <c r="AB496" s="6"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -16879,7 +16905,7 @@
       <c r="AA497" s="6"/>
       <c r="AB497" s="6"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -16909,7 +16935,7 @@
       <c r="AA498" s="6"/>
       <c r="AB498" s="6"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -16939,7 +16965,7 @@
       <c r="AA499" s="6"/>
       <c r="AB499" s="6"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -16969,7 +16995,7 @@
       <c r="AA500" s="6"/>
       <c r="AB500" s="6"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -16999,7 +17025,7 @@
       <c r="AA501" s="6"/>
       <c r="AB501" s="6"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -17029,7 +17055,7 @@
       <c r="AA502" s="6"/>
       <c r="AB502" s="6"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -17059,7 +17085,7 @@
       <c r="AA503" s="6"/>
       <c r="AB503" s="6"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -17089,7 +17115,7 @@
       <c r="AA504" s="6"/>
       <c r="AB504" s="6"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -17119,7 +17145,7 @@
       <c r="AA505" s="6"/>
       <c r="AB505" s="6"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -17149,7 +17175,7 @@
       <c r="AA506" s="6"/>
       <c r="AB506" s="6"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -17179,7 +17205,7 @@
       <c r="AA507" s="6"/>
       <c r="AB507" s="6"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -17209,7 +17235,7 @@
       <c r="AA508" s="6"/>
       <c r="AB508" s="6"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -17239,7 +17265,7 @@
       <c r="AA509" s="6"/>
       <c r="AB509" s="6"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -17269,7 +17295,7 @@
       <c r="AA510" s="6"/>
       <c r="AB510" s="6"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -17299,7 +17325,7 @@
       <c r="AA511" s="6"/>
       <c r="AB511" s="6"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -17329,7 +17355,7 @@
       <c r="AA512" s="6"/>
       <c r="AB512" s="6"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -17359,7 +17385,7 @@
       <c r="AA513" s="6"/>
       <c r="AB513" s="6"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -17389,7 +17415,7 @@
       <c r="AA514" s="6"/>
       <c r="AB514" s="6"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -17419,7 +17445,7 @@
       <c r="AA515" s="6"/>
       <c r="AB515" s="6"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -17449,7 +17475,7 @@
       <c r="AA516" s="6"/>
       <c r="AB516" s="6"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -17479,7 +17505,7 @@
       <c r="AA517" s="6"/>
       <c r="AB517" s="6"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -17509,7 +17535,7 @@
       <c r="AA518" s="6"/>
       <c r="AB518" s="6"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -17539,7 +17565,7 @@
       <c r="AA519" s="6"/>
       <c r="AB519" s="6"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -17569,7 +17595,7 @@
       <c r="AA520" s="6"/>
       <c r="AB520" s="6"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -17599,7 +17625,7 @@
       <c r="AA521" s="6"/>
       <c r="AB521" s="6"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -17629,7 +17655,7 @@
       <c r="AA522" s="6"/>
       <c r="AB522" s="6"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -17659,7 +17685,7 @@
       <c r="AA523" s="6"/>
       <c r="AB523" s="6"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -17689,7 +17715,7 @@
       <c r="AA524" s="6"/>
       <c r="AB524" s="6"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -17719,7 +17745,7 @@
       <c r="AA525" s="6"/>
       <c r="AB525" s="6"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -17749,7 +17775,7 @@
       <c r="AA526" s="6"/>
       <c r="AB526" s="6"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -17779,7 +17805,7 @@
       <c r="AA527" s="6"/>
       <c r="AB527" s="6"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -17809,7 +17835,7 @@
       <c r="AA528" s="6"/>
       <c r="AB528" s="6"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -17839,7 +17865,7 @@
       <c r="AA529" s="6"/>
       <c r="AB529" s="6"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -17869,7 +17895,7 @@
       <c r="AA530" s="6"/>
       <c r="AB530" s="6"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -17899,7 +17925,7 @@
       <c r="AA531" s="6"/>
       <c r="AB531" s="6"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -17929,7 +17955,7 @@
       <c r="AA532" s="6"/>
       <c r="AB532" s="6"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -17959,7 +17985,7 @@
       <c r="AA533" s="6"/>
       <c r="AB533" s="6"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -17989,7 +18015,7 @@
       <c r="AA534" s="6"/>
       <c r="AB534" s="6"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -18019,7 +18045,7 @@
       <c r="AA535" s="6"/>
       <c r="AB535" s="6"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -18049,7 +18075,7 @@
       <c r="AA536" s="6"/>
       <c r="AB536" s="6"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -18079,7 +18105,7 @@
       <c r="AA537" s="6"/>
       <c r="AB537" s="6"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -18109,7 +18135,7 @@
       <c r="AA538" s="6"/>
       <c r="AB538" s="6"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -18139,7 +18165,7 @@
       <c r="AA539" s="6"/>
       <c r="AB539" s="6"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -18169,7 +18195,7 @@
       <c r="AA540" s="6"/>
       <c r="AB540" s="6"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -18199,7 +18225,7 @@
       <c r="AA541" s="6"/>
       <c r="AB541" s="6"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -18229,7 +18255,7 @@
       <c r="AA542" s="6"/>
       <c r="AB542" s="6"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -18259,7 +18285,7 @@
       <c r="AA543" s="6"/>
       <c r="AB543" s="6"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -18289,7 +18315,7 @@
       <c r="AA544" s="6"/>
       <c r="AB544" s="6"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -18319,7 +18345,7 @@
       <c r="AA545" s="6"/>
       <c r="AB545" s="6"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -18349,7 +18375,7 @@
       <c r="AA546" s="6"/>
       <c r="AB546" s="6"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -18379,7 +18405,7 @@
       <c r="AA547" s="6"/>
       <c r="AB547" s="6"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -18409,7 +18435,7 @@
       <c r="AA548" s="6"/>
       <c r="AB548" s="6"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -18439,7 +18465,7 @@
       <c r="AA549" s="6"/>
       <c r="AB549" s="6"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -18469,7 +18495,7 @@
       <c r="AA550" s="6"/>
       <c r="AB550" s="6"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -18499,7 +18525,7 @@
       <c r="AA551" s="6"/>
       <c r="AB551" s="6"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -18529,7 +18555,7 @@
       <c r="AA552" s="6"/>
       <c r="AB552" s="6"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -18559,7 +18585,7 @@
       <c r="AA553" s="6"/>
       <c r="AB553" s="6"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -18589,7 +18615,7 @@
       <c r="AA554" s="6"/>
       <c r="AB554" s="6"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -18619,7 +18645,7 @@
       <c r="AA555" s="6"/>
       <c r="AB555" s="6"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -18649,7 +18675,7 @@
       <c r="AA556" s="6"/>
       <c r="AB556" s="6"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -18679,7 +18705,7 @@
       <c r="AA557" s="6"/>
       <c r="AB557" s="6"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -18709,7 +18735,7 @@
       <c r="AA558" s="6"/>
       <c r="AB558" s="6"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -18739,7 +18765,7 @@
       <c r="AA559" s="6"/>
       <c r="AB559" s="6"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -18769,7 +18795,7 @@
       <c r="AA560" s="6"/>
       <c r="AB560" s="6"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -18799,7 +18825,7 @@
       <c r="AA561" s="6"/>
       <c r="AB561" s="6"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -18829,7 +18855,7 @@
       <c r="AA562" s="6"/>
       <c r="AB562" s="6"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -18859,7 +18885,7 @@
       <c r="AA563" s="6"/>
       <c r="AB563" s="6"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -18889,7 +18915,7 @@
       <c r="AA564" s="6"/>
       <c r="AB564" s="6"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -18919,7 +18945,7 @@
       <c r="AA565" s="6"/>
       <c r="AB565" s="6"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -18949,7 +18975,7 @@
       <c r="AA566" s="6"/>
       <c r="AB566" s="6"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -18979,7 +19005,7 @@
       <c r="AA567" s="6"/>
       <c r="AB567" s="6"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -19009,7 +19035,7 @@
       <c r="AA568" s="6"/>
       <c r="AB568" s="6"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -19039,7 +19065,7 @@
       <c r="AA569" s="6"/>
       <c r="AB569" s="6"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -19069,7 +19095,7 @@
       <c r="AA570" s="6"/>
       <c r="AB570" s="6"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -19099,7 +19125,7 @@
       <c r="AA571" s="6"/>
       <c r="AB571" s="6"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -19129,7 +19155,7 @@
       <c r="AA572" s="6"/>
       <c r="AB572" s="6"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -19159,7 +19185,7 @@
       <c r="AA573" s="6"/>
       <c r="AB573" s="6"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -19189,7 +19215,7 @@
       <c r="AA574" s="6"/>
       <c r="AB574" s="6"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -19219,7 +19245,7 @@
       <c r="AA575" s="6"/>
       <c r="AB575" s="6"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -19249,7 +19275,7 @@
       <c r="AA576" s="6"/>
       <c r="AB576" s="6"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -19279,7 +19305,7 @@
       <c r="AA577" s="6"/>
       <c r="AB577" s="6"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -19309,7 +19335,7 @@
       <c r="AA578" s="6"/>
       <c r="AB578" s="6"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -19339,7 +19365,7 @@
       <c r="AA579" s="6"/>
       <c r="AB579" s="6"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -19369,7 +19395,7 @@
       <c r="AA580" s="6"/>
       <c r="AB580" s="6"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -19399,7 +19425,7 @@
       <c r="AA581" s="6"/>
       <c r="AB581" s="6"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -19429,7 +19455,7 @@
       <c r="AA582" s="6"/>
       <c r="AB582" s="6"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -19459,7 +19485,7 @@
       <c r="AA583" s="6"/>
       <c r="AB583" s="6"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -19489,7 +19515,7 @@
       <c r="AA584" s="6"/>
       <c r="AB584" s="6"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -19519,7 +19545,7 @@
       <c r="AA585" s="6"/>
       <c r="AB585" s="6"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -19549,7 +19575,7 @@
       <c r="AA586" s="6"/>
       <c r="AB586" s="6"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -19579,7 +19605,7 @@
       <c r="AA587" s="6"/>
       <c r="AB587" s="6"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -19609,7 +19635,7 @@
       <c r="AA588" s="6"/>
       <c r="AB588" s="6"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -19639,7 +19665,7 @@
       <c r="AA589" s="6"/>
       <c r="AB589" s="6"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -19669,7 +19695,7 @@
       <c r="AA590" s="6"/>
       <c r="AB590" s="6"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -19699,7 +19725,7 @@
       <c r="AA591" s="6"/>
       <c r="AB591" s="6"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -19729,7 +19755,7 @@
       <c r="AA592" s="6"/>
       <c r="AB592" s="6"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -19759,7 +19785,7 @@
       <c r="AA593" s="6"/>
       <c r="AB593" s="6"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -19789,7 +19815,7 @@
       <c r="AA594" s="6"/>
       <c r="AB594" s="6"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -19819,7 +19845,7 @@
       <c r="AA595" s="6"/>
       <c r="AB595" s="6"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -19849,7 +19875,7 @@
       <c r="AA596" s="6"/>
       <c r="AB596" s="6"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -19879,7 +19905,7 @@
       <c r="AA597" s="6"/>
       <c r="AB597" s="6"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -19909,7 +19935,7 @@
       <c r="AA598" s="6"/>
       <c r="AB598" s="6"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -19939,7 +19965,7 @@
       <c r="AA599" s="6"/>
       <c r="AB599" s="6"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -19969,7 +19995,7 @@
       <c r="AA600" s="6"/>
       <c r="AB600" s="6"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -19999,7 +20025,7 @@
       <c r="AA601" s="6"/>
       <c r="AB601" s="6"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -20029,7 +20055,7 @@
       <c r="AA602" s="6"/>
       <c r="AB602" s="6"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -20059,7 +20085,7 @@
       <c r="AA603" s="6"/>
       <c r="AB603" s="6"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -20089,7 +20115,7 @@
       <c r="AA604" s="6"/>
       <c r="AB604" s="6"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -20119,7 +20145,7 @@
       <c r="AA605" s="6"/>
       <c r="AB605" s="6"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -20149,7 +20175,7 @@
       <c r="AA606" s="6"/>
       <c r="AB606" s="6"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -20179,7 +20205,7 @@
       <c r="AA607" s="6"/>
       <c r="AB607" s="6"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -20209,7 +20235,7 @@
       <c r="AA608" s="6"/>
       <c r="AB608" s="6"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -20239,7 +20265,7 @@
       <c r="AA609" s="6"/>
       <c r="AB609" s="6"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -20269,7 +20295,7 @@
       <c r="AA610" s="6"/>
       <c r="AB610" s="6"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -20299,7 +20325,7 @@
       <c r="AA611" s="6"/>
       <c r="AB611" s="6"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -20329,7 +20355,7 @@
       <c r="AA612" s="6"/>
       <c r="AB612" s="6"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -20359,7 +20385,7 @@
       <c r="AA613" s="6"/>
       <c r="AB613" s="6"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -20389,7 +20415,7 @@
       <c r="AA614" s="6"/>
       <c r="AB614" s="6"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -20419,7 +20445,7 @@
       <c r="AA615" s="6"/>
       <c r="AB615" s="6"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -20449,7 +20475,7 @@
       <c r="AA616" s="6"/>
       <c r="AB616" s="6"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -20479,7 +20505,7 @@
       <c r="AA617" s="6"/>
       <c r="AB617" s="6"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -20509,7 +20535,7 @@
       <c r="AA618" s="6"/>
       <c r="AB618" s="6"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -20539,7 +20565,7 @@
       <c r="AA619" s="6"/>
       <c r="AB619" s="6"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -20569,7 +20595,7 @@
       <c r="AA620" s="6"/>
       <c r="AB620" s="6"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -20599,7 +20625,7 @@
       <c r="AA621" s="6"/>
       <c r="AB621" s="6"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -20629,7 +20655,7 @@
       <c r="AA622" s="6"/>
       <c r="AB622" s="6"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -20659,7 +20685,7 @@
       <c r="AA623" s="6"/>
       <c r="AB623" s="6"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -20689,7 +20715,7 @@
       <c r="AA624" s="6"/>
       <c r="AB624" s="6"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -20719,7 +20745,7 @@
       <c r="AA625" s="6"/>
       <c r="AB625" s="6"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -20749,7 +20775,7 @@
       <c r="AA626" s="6"/>
       <c r="AB626" s="6"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -20779,7 +20805,7 @@
       <c r="AA627" s="6"/>
       <c r="AB627" s="6"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -20809,7 +20835,7 @@
       <c r="AA628" s="6"/>
       <c r="AB628" s="6"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -20839,7 +20865,7 @@
       <c r="AA629" s="6"/>
       <c r="AB629" s="6"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -20869,7 +20895,7 @@
       <c r="AA630" s="6"/>
       <c r="AB630" s="6"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -20899,7 +20925,7 @@
       <c r="AA631" s="6"/>
       <c r="AB631" s="6"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -20929,7 +20955,7 @@
       <c r="AA632" s="6"/>
       <c r="AB632" s="6"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -20959,7 +20985,7 @@
       <c r="AA633" s="6"/>
       <c r="AB633" s="6"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -20989,7 +21015,7 @@
       <c r="AA634" s="6"/>
       <c r="AB634" s="6"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -21019,7 +21045,7 @@
       <c r="AA635" s="6"/>
       <c r="AB635" s="6"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -21049,7 +21075,7 @@
       <c r="AA636" s="6"/>
       <c r="AB636" s="6"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -21079,7 +21105,7 @@
       <c r="AA637" s="6"/>
       <c r="AB637" s="6"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -21109,7 +21135,7 @@
       <c r="AA638" s="6"/>
       <c r="AB638" s="6"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -21139,7 +21165,7 @@
       <c r="AA639" s="6"/>
       <c r="AB639" s="6"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -21169,7 +21195,7 @@
       <c r="AA640" s="6"/>
       <c r="AB640" s="6"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -21199,7 +21225,7 @@
       <c r="AA641" s="6"/>
       <c r="AB641" s="6"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -21229,7 +21255,7 @@
       <c r="AA642" s="6"/>
       <c r="AB642" s="6"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -21259,7 +21285,7 @@
       <c r="AA643" s="6"/>
       <c r="AB643" s="6"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -21289,7 +21315,7 @@
       <c r="AA644" s="6"/>
       <c r="AB644" s="6"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -21319,7 +21345,7 @@
       <c r="AA645" s="6"/>
       <c r="AB645" s="6"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -21349,7 +21375,7 @@
       <c r="AA646" s="6"/>
       <c r="AB646" s="6"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -21379,7 +21405,7 @@
       <c r="AA647" s="6"/>
       <c r="AB647" s="6"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -21409,7 +21435,7 @@
       <c r="AA648" s="6"/>
       <c r="AB648" s="6"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -21439,7 +21465,7 @@
       <c r="AA649" s="6"/>
       <c r="AB649" s="6"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -21469,7 +21495,7 @@
       <c r="AA650" s="6"/>
       <c r="AB650" s="6"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -21499,7 +21525,7 @@
       <c r="AA651" s="6"/>
       <c r="AB651" s="6"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -21529,7 +21555,7 @@
       <c r="AA652" s="6"/>
       <c r="AB652" s="6"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -21559,7 +21585,7 @@
       <c r="AA653" s="6"/>
       <c r="AB653" s="6"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -21589,7 +21615,7 @@
       <c r="AA654" s="6"/>
       <c r="AB654" s="6"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -21619,7 +21645,7 @@
       <c r="AA655" s="6"/>
       <c r="AB655" s="6"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -21649,7 +21675,7 @@
       <c r="AA656" s="6"/>
       <c r="AB656" s="6"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -21679,7 +21705,7 @@
       <c r="AA657" s="6"/>
       <c r="AB657" s="6"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -21709,7 +21735,7 @@
       <c r="AA658" s="6"/>
       <c r="AB658" s="6"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -21739,7 +21765,7 @@
       <c r="AA659" s="6"/>
       <c r="AB659" s="6"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -21769,7 +21795,7 @@
       <c r="AA660" s="6"/>
       <c r="AB660" s="6"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -21799,7 +21825,7 @@
       <c r="AA661" s="6"/>
       <c r="AB661" s="6"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -21829,7 +21855,7 @@
       <c r="AA662" s="6"/>
       <c r="AB662" s="6"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -21859,7 +21885,7 @@
       <c r="AA663" s="6"/>
       <c r="AB663" s="6"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -21889,7 +21915,7 @@
       <c r="AA664" s="6"/>
       <c r="AB664" s="6"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -21919,7 +21945,7 @@
       <c r="AA665" s="6"/>
       <c r="AB665" s="6"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -21949,7 +21975,7 @@
       <c r="AA666" s="6"/>
       <c r="AB666" s="6"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -21979,7 +22005,7 @@
       <c r="AA667" s="6"/>
       <c r="AB667" s="6"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -22009,7 +22035,7 @@
       <c r="AA668" s="6"/>
       <c r="AB668" s="6"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -22039,7 +22065,7 @@
       <c r="AA669" s="6"/>
       <c r="AB669" s="6"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -22069,7 +22095,7 @@
       <c r="AA670" s="6"/>
       <c r="AB670" s="6"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -22099,7 +22125,7 @@
       <c r="AA671" s="6"/>
       <c r="AB671" s="6"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -22129,7 +22155,7 @@
       <c r="AA672" s="6"/>
       <c r="AB672" s="6"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -22159,7 +22185,7 @@
       <c r="AA673" s="6"/>
       <c r="AB673" s="6"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -22189,7 +22215,7 @@
       <c r="AA674" s="6"/>
       <c r="AB674" s="6"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -22219,7 +22245,7 @@
       <c r="AA675" s="6"/>
       <c r="AB675" s="6"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -22249,7 +22275,7 @@
       <c r="AA676" s="6"/>
       <c r="AB676" s="6"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -22279,7 +22305,7 @@
       <c r="AA677" s="6"/>
       <c r="AB677" s="6"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -22309,7 +22335,7 @@
       <c r="AA678" s="6"/>
       <c r="AB678" s="6"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -22339,7 +22365,7 @@
       <c r="AA679" s="6"/>
       <c r="AB679" s="6"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -22369,7 +22395,7 @@
       <c r="AA680" s="6"/>
       <c r="AB680" s="6"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -22399,7 +22425,7 @@
       <c r="AA681" s="6"/>
       <c r="AB681" s="6"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -22429,7 +22455,7 @@
       <c r="AA682" s="6"/>
       <c r="AB682" s="6"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -22459,7 +22485,7 @@
       <c r="AA683" s="6"/>
       <c r="AB683" s="6"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -22489,7 +22515,7 @@
       <c r="AA684" s="6"/>
       <c r="AB684" s="6"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -22519,7 +22545,7 @@
       <c r="AA685" s="6"/>
       <c r="AB685" s="6"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -22549,7 +22575,7 @@
       <c r="AA686" s="6"/>
       <c r="AB686" s="6"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -22579,7 +22605,7 @@
       <c r="AA687" s="6"/>
       <c r="AB687" s="6"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -22609,7 +22635,7 @@
       <c r="AA688" s="6"/>
       <c r="AB688" s="6"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -22639,7 +22665,7 @@
       <c r="AA689" s="6"/>
       <c r="AB689" s="6"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -22669,7 +22695,7 @@
       <c r="AA690" s="6"/>
       <c r="AB690" s="6"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -22699,7 +22725,7 @@
       <c r="AA691" s="6"/>
       <c r="AB691" s="6"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -22729,7 +22755,7 @@
       <c r="AA692" s="6"/>
       <c r="AB692" s="6"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -22759,7 +22785,7 @@
       <c r="AA693" s="6"/>
       <c r="AB693" s="6"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -22789,7 +22815,7 @@
       <c r="AA694" s="6"/>
       <c r="AB694" s="6"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -22819,7 +22845,7 @@
       <c r="AA695" s="6"/>
       <c r="AB695" s="6"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -22849,7 +22875,7 @@
       <c r="AA696" s="6"/>
       <c r="AB696" s="6"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -22879,7 +22905,7 @@
       <c r="AA697" s="6"/>
       <c r="AB697" s="6"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -22909,7 +22935,7 @@
       <c r="AA698" s="6"/>
       <c r="AB698" s="6"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -22939,7 +22965,7 @@
       <c r="AA699" s="6"/>
       <c r="AB699" s="6"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -22969,7 +22995,7 @@
       <c r="AA700" s="6"/>
       <c r="AB700" s="6"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -22999,7 +23025,7 @@
       <c r="AA701" s="6"/>
       <c r="AB701" s="6"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -23029,7 +23055,7 @@
       <c r="AA702" s="6"/>
       <c r="AB702" s="6"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -23059,7 +23085,7 @@
       <c r="AA703" s="6"/>
       <c r="AB703" s="6"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -23089,7 +23115,7 @@
       <c r="AA704" s="6"/>
       <c r="AB704" s="6"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -23119,7 +23145,7 @@
       <c r="AA705" s="6"/>
       <c r="AB705" s="6"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -23149,7 +23175,7 @@
       <c r="AA706" s="6"/>
       <c r="AB706" s="6"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -23179,7 +23205,7 @@
       <c r="AA707" s="6"/>
       <c r="AB707" s="6"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -23209,7 +23235,7 @@
       <c r="AA708" s="6"/>
       <c r="AB708" s="6"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -23239,7 +23265,7 @@
       <c r="AA709" s="6"/>
       <c r="AB709" s="6"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -23269,7 +23295,7 @@
       <c r="AA710" s="6"/>
       <c r="AB710" s="6"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -23299,7 +23325,7 @@
       <c r="AA711" s="6"/>
       <c r="AB711" s="6"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -23329,7 +23355,7 @@
       <c r="AA712" s="6"/>
       <c r="AB712" s="6"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -23359,7 +23385,7 @@
       <c r="AA713" s="6"/>
       <c r="AB713" s="6"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -23389,7 +23415,7 @@
       <c r="AA714" s="6"/>
       <c r="AB714" s="6"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -23419,7 +23445,7 @@
       <c r="AA715" s="6"/>
       <c r="AB715" s="6"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -23449,7 +23475,7 @@
       <c r="AA716" s="6"/>
       <c r="AB716" s="6"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -23479,7 +23505,7 @@
       <c r="AA717" s="6"/>
       <c r="AB717" s="6"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -23509,7 +23535,7 @@
       <c r="AA718" s="6"/>
       <c r="AB718" s="6"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -23539,7 +23565,7 @@
       <c r="AA719" s="6"/>
       <c r="AB719" s="6"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -23569,7 +23595,7 @@
       <c r="AA720" s="6"/>
       <c r="AB720" s="6"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -23599,7 +23625,7 @@
       <c r="AA721" s="6"/>
       <c r="AB721" s="6"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -23629,7 +23655,7 @@
       <c r="AA722" s="6"/>
       <c r="AB722" s="6"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -23659,7 +23685,7 @@
       <c r="AA723" s="6"/>
       <c r="AB723" s="6"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -23689,7 +23715,7 @@
       <c r="AA724" s="6"/>
       <c r="AB724" s="6"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -23719,7 +23745,7 @@
       <c r="AA725" s="6"/>
       <c r="AB725" s="6"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -23749,7 +23775,7 @@
       <c r="AA726" s="6"/>
       <c r="AB726" s="6"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -23779,7 +23805,7 @@
       <c r="AA727" s="6"/>
       <c r="AB727" s="6"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -23809,7 +23835,7 @@
       <c r="AA728" s="6"/>
       <c r="AB728" s="6"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -23839,7 +23865,7 @@
       <c r="AA729" s="6"/>
       <c r="AB729" s="6"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -23869,7 +23895,7 @@
       <c r="AA730" s="6"/>
       <c r="AB730" s="6"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -23899,7 +23925,7 @@
       <c r="AA731" s="6"/>
       <c r="AB731" s="6"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -23929,7 +23955,7 @@
       <c r="AA732" s="6"/>
       <c r="AB732" s="6"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -23959,7 +23985,7 @@
       <c r="AA733" s="6"/>
       <c r="AB733" s="6"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -23989,7 +24015,7 @@
       <c r="AA734" s="6"/>
       <c r="AB734" s="6"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -24019,7 +24045,7 @@
       <c r="AA735" s="6"/>
       <c r="AB735" s="6"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -24049,7 +24075,7 @@
       <c r="AA736" s="6"/>
       <c r="AB736" s="6"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -24079,7 +24105,7 @@
       <c r="AA737" s="6"/>
       <c r="AB737" s="6"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -24109,7 +24135,7 @@
       <c r="AA738" s="6"/>
       <c r="AB738" s="6"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -24139,7 +24165,7 @@
       <c r="AA739" s="6"/>
       <c r="AB739" s="6"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -24169,7 +24195,7 @@
       <c r="AA740" s="6"/>
       <c r="AB740" s="6"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -24199,7 +24225,7 @@
       <c r="AA741" s="6"/>
       <c r="AB741" s="6"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -24229,7 +24255,7 @@
       <c r="AA742" s="6"/>
       <c r="AB742" s="6"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -24259,7 +24285,7 @@
       <c r="AA743" s="6"/>
       <c r="AB743" s="6"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -24289,7 +24315,7 @@
       <c r="AA744" s="6"/>
       <c r="AB744" s="6"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -24319,7 +24345,7 @@
       <c r="AA745" s="6"/>
       <c r="AB745" s="6"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -24349,7 +24375,7 @@
       <c r="AA746" s="6"/>
       <c r="AB746" s="6"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -24379,7 +24405,7 @@
       <c r="AA747" s="6"/>
       <c r="AB747" s="6"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -24409,7 +24435,7 @@
       <c r="AA748" s="6"/>
       <c r="AB748" s="6"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -24439,7 +24465,7 @@
       <c r="AA749" s="6"/>
       <c r="AB749" s="6"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -24469,7 +24495,7 @@
       <c r="AA750" s="6"/>
       <c r="AB750" s="6"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -24499,7 +24525,7 @@
       <c r="AA751" s="6"/>
       <c r="AB751" s="6"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -24529,7 +24555,7 @@
       <c r="AA752" s="6"/>
       <c r="AB752" s="6"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -24559,7 +24585,7 @@
       <c r="AA753" s="6"/>
       <c r="AB753" s="6"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -24589,7 +24615,7 @@
       <c r="AA754" s="6"/>
       <c r="AB754" s="6"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -24619,7 +24645,7 @@
       <c r="AA755" s="6"/>
       <c r="AB755" s="6"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -24649,7 +24675,7 @@
       <c r="AA756" s="6"/>
       <c r="AB756" s="6"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -24679,7 +24705,7 @@
       <c r="AA757" s="6"/>
       <c r="AB757" s="6"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -24709,7 +24735,7 @@
       <c r="AA758" s="6"/>
       <c r="AB758" s="6"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -24739,7 +24765,7 @@
       <c r="AA759" s="6"/>
       <c r="AB759" s="6"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -24769,7 +24795,7 @@
       <c r="AA760" s="6"/>
       <c r="AB760" s="6"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -24799,7 +24825,7 @@
       <c r="AA761" s="6"/>
       <c r="AB761" s="6"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -24829,7 +24855,7 @@
       <c r="AA762" s="6"/>
       <c r="AB762" s="6"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -24859,7 +24885,7 @@
       <c r="AA763" s="6"/>
       <c r="AB763" s="6"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -24889,7 +24915,7 @@
       <c r="AA764" s="6"/>
       <c r="AB764" s="6"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -24919,7 +24945,7 @@
       <c r="AA765" s="6"/>
       <c r="AB765" s="6"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -24949,7 +24975,7 @@
       <c r="AA766" s="6"/>
       <c r="AB766" s="6"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -24979,7 +25005,7 @@
       <c r="AA767" s="6"/>
       <c r="AB767" s="6"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -25009,7 +25035,7 @@
       <c r="AA768" s="6"/>
       <c r="AB768" s="6"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -25039,7 +25065,7 @@
       <c r="AA769" s="6"/>
       <c r="AB769" s="6"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -25069,7 +25095,7 @@
       <c r="AA770" s="6"/>
       <c r="AB770" s="6"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -25099,7 +25125,7 @@
       <c r="AA771" s="6"/>
       <c r="AB771" s="6"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -25129,7 +25155,7 @@
       <c r="AA772" s="6"/>
       <c r="AB772" s="6"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -25159,7 +25185,7 @@
       <c r="AA773" s="6"/>
       <c r="AB773" s="6"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -25189,7 +25215,7 @@
       <c r="AA774" s="6"/>
       <c r="AB774" s="6"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -25219,7 +25245,7 @@
       <c r="AA775" s="6"/>
       <c r="AB775" s="6"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -25249,7 +25275,7 @@
       <c r="AA776" s="6"/>
       <c r="AB776" s="6"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -25279,7 +25305,7 @@
       <c r="AA777" s="6"/>
       <c r="AB777" s="6"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -25309,7 +25335,7 @@
       <c r="AA778" s="6"/>
       <c r="AB778" s="6"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -25339,7 +25365,7 @@
       <c r="AA779" s="6"/>
       <c r="AB779" s="6"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -25369,7 +25395,7 @@
       <c r="AA780" s="6"/>
       <c r="AB780" s="6"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -25399,7 +25425,7 @@
       <c r="AA781" s="6"/>
       <c r="AB781" s="6"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -25429,7 +25455,7 @@
       <c r="AA782" s="6"/>
       <c r="AB782" s="6"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -25459,7 +25485,7 @@
       <c r="AA783" s="6"/>
       <c r="AB783" s="6"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -25489,7 +25515,7 @@
       <c r="AA784" s="6"/>
       <c r="AB784" s="6"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -25519,7 +25545,7 @@
       <c r="AA785" s="6"/>
       <c r="AB785" s="6"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -25549,7 +25575,7 @@
       <c r="AA786" s="6"/>
       <c r="AB786" s="6"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -25579,7 +25605,7 @@
       <c r="AA787" s="6"/>
       <c r="AB787" s="6"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -25609,7 +25635,7 @@
       <c r="AA788" s="6"/>
       <c r="AB788" s="6"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -25639,7 +25665,7 @@
       <c r="AA789" s="6"/>
       <c r="AB789" s="6"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -25669,7 +25695,7 @@
       <c r="AA790" s="6"/>
       <c r="AB790" s="6"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -25699,7 +25725,7 @@
       <c r="AA791" s="6"/>
       <c r="AB791" s="6"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -25729,7 +25755,7 @@
       <c r="AA792" s="6"/>
       <c r="AB792" s="6"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -25759,7 +25785,7 @@
       <c r="AA793" s="6"/>
       <c r="AB793" s="6"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -25789,7 +25815,7 @@
       <c r="AA794" s="6"/>
       <c r="AB794" s="6"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -25819,7 +25845,7 @@
       <c r="AA795" s="6"/>
       <c r="AB795" s="6"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -25849,7 +25875,7 @@
       <c r="AA796" s="6"/>
       <c r="AB796" s="6"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -25879,7 +25905,7 @@
       <c r="AA797" s="6"/>
       <c r="AB797" s="6"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -25909,7 +25935,7 @@
       <c r="AA798" s="6"/>
       <c r="AB798" s="6"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -25939,7 +25965,7 @@
       <c r="AA799" s="6"/>
       <c r="AB799" s="6"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -25969,7 +25995,7 @@
       <c r="AA800" s="6"/>
       <c r="AB800" s="6"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -25999,7 +26025,7 @@
       <c r="AA801" s="6"/>
       <c r="AB801" s="6"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -26029,7 +26055,7 @@
       <c r="AA802" s="6"/>
       <c r="AB802" s="6"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -26059,7 +26085,7 @@
       <c r="AA803" s="6"/>
       <c r="AB803" s="6"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -26089,7 +26115,7 @@
       <c r="AA804" s="6"/>
       <c r="AB804" s="6"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -26119,7 +26145,7 @@
       <c r="AA805" s="6"/>
       <c r="AB805" s="6"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -26149,7 +26175,7 @@
       <c r="AA806" s="6"/>
       <c r="AB806" s="6"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -26179,7 +26205,7 @@
       <c r="AA807" s="6"/>
       <c r="AB807" s="6"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -26209,7 +26235,7 @@
       <c r="AA808" s="6"/>
       <c r="AB808" s="6"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -26239,7 +26265,7 @@
       <c r="AA809" s="6"/>
       <c r="AB809" s="6"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -26269,7 +26295,7 @@
       <c r="AA810" s="6"/>
       <c r="AB810" s="6"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -26299,7 +26325,7 @@
       <c r="AA811" s="6"/>
       <c r="AB811" s="6"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -26329,7 +26355,7 @@
       <c r="AA812" s="6"/>
       <c r="AB812" s="6"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -26359,7 +26385,7 @@
       <c r="AA813" s="6"/>
       <c r="AB813" s="6"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -26389,7 +26415,7 @@
       <c r="AA814" s="6"/>
       <c r="AB814" s="6"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -26419,7 +26445,7 @@
       <c r="AA815" s="6"/>
       <c r="AB815" s="6"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -26449,7 +26475,7 @@
       <c r="AA816" s="6"/>
       <c r="AB816" s="6"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -26479,7 +26505,7 @@
       <c r="AA817" s="6"/>
       <c r="AB817" s="6"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -26509,7 +26535,7 @@
       <c r="AA818" s="6"/>
       <c r="AB818" s="6"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -26539,7 +26565,7 @@
       <c r="AA819" s="6"/>
       <c r="AB819" s="6"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -26569,7 +26595,7 @@
       <c r="AA820" s="6"/>
       <c r="AB820" s="6"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -26599,7 +26625,7 @@
       <c r="AA821" s="6"/>
       <c r="AB821" s="6"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -26629,7 +26655,7 @@
       <c r="AA822" s="6"/>
       <c r="AB822" s="6"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -26659,7 +26685,7 @@
       <c r="AA823" s="6"/>
       <c r="AB823" s="6"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -26689,7 +26715,7 @@
       <c r="AA824" s="6"/>
       <c r="AB824" s="6"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -26719,7 +26745,7 @@
       <c r="AA825" s="6"/>
       <c r="AB825" s="6"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -26749,7 +26775,7 @@
       <c r="AA826" s="6"/>
       <c r="AB826" s="6"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -26779,7 +26805,7 @@
       <c r="AA827" s="6"/>
       <c r="AB827" s="6"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -26809,7 +26835,7 @@
       <c r="AA828" s="6"/>
       <c r="AB828" s="6"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -26839,7 +26865,7 @@
       <c r="AA829" s="6"/>
       <c r="AB829" s="6"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -26869,7 +26895,7 @@
       <c r="AA830" s="6"/>
       <c r="AB830" s="6"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -26899,7 +26925,7 @@
       <c r="AA831" s="6"/>
       <c r="AB831" s="6"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -26929,7 +26955,7 @@
       <c r="AA832" s="6"/>
       <c r="AB832" s="6"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -26959,7 +26985,7 @@
       <c r="AA833" s="6"/>
       <c r="AB833" s="6"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -26989,7 +27015,7 @@
       <c r="AA834" s="6"/>
       <c r="AB834" s="6"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -27019,7 +27045,7 @@
       <c r="AA835" s="6"/>
       <c r="AB835" s="6"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -27049,7 +27075,7 @@
       <c r="AA836" s="6"/>
       <c r="AB836" s="6"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -27079,7 +27105,7 @@
       <c r="AA837" s="6"/>
       <c r="AB837" s="6"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -27109,7 +27135,7 @@
       <c r="AA838" s="6"/>
       <c r="AB838" s="6"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -27139,7 +27165,7 @@
       <c r="AA839" s="6"/>
       <c r="AB839" s="6"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -27169,7 +27195,7 @@
       <c r="AA840" s="6"/>
       <c r="AB840" s="6"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -27199,7 +27225,7 @@
       <c r="AA841" s="6"/>
       <c r="AB841" s="6"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -27229,7 +27255,7 @@
       <c r="AA842" s="6"/>
       <c r="AB842" s="6"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -27259,7 +27285,7 @@
       <c r="AA843" s="6"/>
       <c r="AB843" s="6"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -27289,7 +27315,7 @@
       <c r="AA844" s="6"/>
       <c r="AB844" s="6"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -27319,7 +27345,7 @@
       <c r="AA845" s="6"/>
       <c r="AB845" s="6"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -27349,7 +27375,7 @@
       <c r="AA846" s="6"/>
       <c r="AB846" s="6"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -27379,7 +27405,7 @@
       <c r="AA847" s="6"/>
       <c r="AB847" s="6"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -27409,7 +27435,7 @@
       <c r="AA848" s="6"/>
       <c r="AB848" s="6"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -27439,7 +27465,7 @@
       <c r="AA849" s="6"/>
       <c r="AB849" s="6"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -27469,7 +27495,7 @@
       <c r="AA850" s="6"/>
       <c r="AB850" s="6"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -27499,7 +27525,7 @@
       <c r="AA851" s="6"/>
       <c r="AB851" s="6"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -27529,7 +27555,7 @@
       <c r="AA852" s="6"/>
       <c r="AB852" s="6"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -27559,7 +27585,7 @@
       <c r="AA853" s="6"/>
       <c r="AB853" s="6"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -27589,7 +27615,7 @@
       <c r="AA854" s="6"/>
       <c r="AB854" s="6"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -27619,7 +27645,7 @@
       <c r="AA855" s="6"/>
       <c r="AB855" s="6"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -27649,7 +27675,7 @@
       <c r="AA856" s="6"/>
       <c r="AB856" s="6"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -27679,7 +27705,7 @@
       <c r="AA857" s="6"/>
       <c r="AB857" s="6"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -27709,7 +27735,7 @@
       <c r="AA858" s="6"/>
       <c r="AB858" s="6"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -27739,7 +27765,7 @@
       <c r="AA859" s="6"/>
       <c r="AB859" s="6"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -27769,7 +27795,7 @@
       <c r="AA860" s="6"/>
       <c r="AB860" s="6"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -27799,7 +27825,7 @@
       <c r="AA861" s="6"/>
       <c r="AB861" s="6"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -27829,7 +27855,7 @@
       <c r="AA862" s="6"/>
       <c r="AB862" s="6"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -27859,7 +27885,7 @@
       <c r="AA863" s="6"/>
       <c r="AB863" s="6"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -27889,7 +27915,7 @@
       <c r="AA864" s="6"/>
       <c r="AB864" s="6"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -27919,7 +27945,7 @@
       <c r="AA865" s="6"/>
       <c r="AB865" s="6"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -27949,7 +27975,7 @@
       <c r="AA866" s="6"/>
       <c r="AB866" s="6"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -27979,7 +28005,7 @@
       <c r="AA867" s="6"/>
       <c r="AB867" s="6"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -28009,7 +28035,7 @@
       <c r="AA868" s="6"/>
       <c r="AB868" s="6"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -28039,7 +28065,7 @@
       <c r="AA869" s="6"/>
       <c r="AB869" s="6"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -28069,7 +28095,7 @@
       <c r="AA870" s="6"/>
       <c r="AB870" s="6"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -28099,7 +28125,7 @@
       <c r="AA871" s="6"/>
       <c r="AB871" s="6"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -28129,7 +28155,7 @@
       <c r="AA872" s="6"/>
       <c r="AB872" s="6"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -28159,7 +28185,7 @@
       <c r="AA873" s="6"/>
       <c r="AB873" s="6"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -28189,7 +28215,7 @@
       <c r="AA874" s="6"/>
       <c r="AB874" s="6"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -28219,7 +28245,7 @@
       <c r="AA875" s="6"/>
       <c r="AB875" s="6"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -28249,7 +28275,7 @@
       <c r="AA876" s="6"/>
       <c r="AB876" s="6"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -28279,7 +28305,7 @@
       <c r="AA877" s="6"/>
       <c r="AB877" s="6"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -28309,7 +28335,7 @@
       <c r="AA878" s="6"/>
       <c r="AB878" s="6"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -28339,7 +28365,7 @@
       <c r="AA879" s="6"/>
       <c r="AB879" s="6"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -28369,7 +28395,7 @@
       <c r="AA880" s="6"/>
       <c r="AB880" s="6"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -28399,7 +28425,7 @@
       <c r="AA881" s="6"/>
       <c r="AB881" s="6"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -28429,7 +28455,7 @@
       <c r="AA882" s="6"/>
       <c r="AB882" s="6"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -28459,7 +28485,7 @@
       <c r="AA883" s="6"/>
       <c r="AB883" s="6"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -28489,7 +28515,7 @@
       <c r="AA884" s="6"/>
       <c r="AB884" s="6"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -28519,7 +28545,7 @@
       <c r="AA885" s="6"/>
       <c r="AB885" s="6"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -28549,7 +28575,7 @@
       <c r="AA886" s="6"/>
       <c r="AB886" s="6"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -28579,7 +28605,7 @@
       <c r="AA887" s="6"/>
       <c r="AB887" s="6"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -28609,7 +28635,7 @@
       <c r="AA888" s="6"/>
       <c r="AB888" s="6"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -28639,7 +28665,7 @@
       <c r="AA889" s="6"/>
       <c r="AB889" s="6"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -28669,7 +28695,7 @@
       <c r="AA890" s="6"/>
       <c r="AB890" s="6"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -28699,7 +28725,7 @@
       <c r="AA891" s="6"/>
       <c r="AB891" s="6"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -28729,7 +28755,7 @@
       <c r="AA892" s="6"/>
       <c r="AB892" s="6"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -28759,7 +28785,7 @@
       <c r="AA893" s="6"/>
       <c r="AB893" s="6"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -28789,7 +28815,7 @@
       <c r="AA894" s="6"/>
       <c r="AB894" s="6"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -28819,7 +28845,7 @@
       <c r="AA895" s="6"/>
       <c r="AB895" s="6"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -28849,7 +28875,7 @@
       <c r="AA896" s="6"/>
       <c r="AB896" s="6"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -28879,7 +28905,7 @@
       <c r="AA897" s="6"/>
       <c r="AB897" s="6"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -28909,7 +28935,7 @@
       <c r="AA898" s="6"/>
       <c r="AB898" s="6"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -28939,7 +28965,7 @@
       <c r="AA899" s="6"/>
       <c r="AB899" s="6"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -28969,7 +28995,7 @@
       <c r="AA900" s="6"/>
       <c r="AB900" s="6"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -28999,7 +29025,7 @@
       <c r="AA901" s="6"/>
       <c r="AB901" s="6"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -29029,7 +29055,7 @@
       <c r="AA902" s="6"/>
       <c r="AB902" s="6"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -29059,7 +29085,7 @@
       <c r="AA903" s="6"/>
       <c r="AB903" s="6"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -29089,7 +29115,7 @@
       <c r="AA904" s="6"/>
       <c r="AB904" s="6"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -29119,7 +29145,7 @@
       <c r="AA905" s="6"/>
       <c r="AB905" s="6"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -29149,7 +29175,7 @@
       <c r="AA906" s="6"/>
       <c r="AB906" s="6"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -29179,7 +29205,7 @@
       <c r="AA907" s="6"/>
       <c r="AB907" s="6"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -29209,7 +29235,7 @@
       <c r="AA908" s="6"/>
       <c r="AB908" s="6"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -29239,7 +29265,7 @@
       <c r="AA909" s="6"/>
       <c r="AB909" s="6"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -29269,7 +29295,7 @@
       <c r="AA910" s="6"/>
       <c r="AB910" s="6"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -29299,7 +29325,7 @@
       <c r="AA911" s="6"/>
       <c r="AB911" s="6"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -29329,7 +29355,7 @@
       <c r="AA912" s="6"/>
       <c r="AB912" s="6"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -29359,7 +29385,7 @@
       <c r="AA913" s="6"/>
       <c r="AB913" s="6"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -29389,7 +29415,7 @@
       <c r="AA914" s="6"/>
       <c r="AB914" s="6"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -29419,7 +29445,7 @@
       <c r="AA915" s="6"/>
       <c r="AB915" s="6"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -29449,7 +29475,7 @@
       <c r="AA916" s="6"/>
       <c r="AB916" s="6"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -29479,7 +29505,7 @@
       <c r="AA917" s="6"/>
       <c r="AB917" s="6"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -29509,7 +29535,7 @@
       <c r="AA918" s="6"/>
       <c r="AB918" s="6"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -29539,7 +29565,7 @@
       <c r="AA919" s="6"/>
       <c r="AB919" s="6"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -29569,7 +29595,7 @@
       <c r="AA920" s="6"/>
       <c r="AB920" s="6"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -29599,7 +29625,7 @@
       <c r="AA921" s="6"/>
       <c r="AB921" s="6"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -29629,7 +29655,7 @@
       <c r="AA922" s="6"/>
       <c r="AB922" s="6"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -29659,7 +29685,7 @@
       <c r="AA923" s="6"/>
       <c r="AB923" s="6"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -29689,7 +29715,7 @@
       <c r="AA924" s="6"/>
       <c r="AB924" s="6"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -29719,7 +29745,7 @@
       <c r="AA925" s="6"/>
       <c r="AB925" s="6"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -29749,7 +29775,7 @@
       <c r="AA926" s="6"/>
       <c r="AB926" s="6"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -29779,7 +29805,7 @@
       <c r="AA927" s="6"/>
       <c r="AB927" s="6"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -29809,7 +29835,7 @@
       <c r="AA928" s="6"/>
       <c r="AB928" s="6"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -29839,7 +29865,7 @@
       <c r="AA929" s="6"/>
       <c r="AB929" s="6"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -29869,7 +29895,7 @@
       <c r="AA930" s="6"/>
       <c r="AB930" s="6"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -29899,7 +29925,7 @@
       <c r="AA931" s="6"/>
       <c r="AB931" s="6"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -29929,7 +29955,7 @@
       <c r="AA932" s="6"/>
       <c r="AB932" s="6"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -29959,7 +29985,7 @@
       <c r="AA933" s="6"/>
       <c r="AB933" s="6"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -29989,7 +30015,7 @@
       <c r="AA934" s="6"/>
       <c r="AB934" s="6"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -30019,7 +30045,7 @@
       <c r="AA935" s="6"/>
       <c r="AB935" s="6"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -30049,7 +30075,7 @@
       <c r="AA936" s="6"/>
       <c r="AB936" s="6"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -30079,7 +30105,7 @@
       <c r="AA937" s="6"/>
       <c r="AB937" s="6"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -30109,7 +30135,7 @@
       <c r="AA938" s="6"/>
       <c r="AB938" s="6"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -30139,7 +30165,7 @@
       <c r="AA939" s="6"/>
       <c r="AB939" s="6"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -30169,7 +30195,7 @@
       <c r="AA940" s="6"/>
       <c r="AB940" s="6"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -30199,7 +30225,7 @@
       <c r="AA941" s="6"/>
       <c r="AB941" s="6"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -30229,7 +30255,7 @@
       <c r="AA942" s="6"/>
       <c r="AB942" s="6"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -30259,7 +30285,7 @@
       <c r="AA943" s="6"/>
       <c r="AB943" s="6"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -30289,7 +30315,7 @@
       <c r="AA944" s="6"/>
       <c r="AB944" s="6"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -30319,7 +30345,7 @@
       <c r="AA945" s="6"/>
       <c r="AB945" s="6"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -30349,7 +30375,7 @@
       <c r="AA946" s="6"/>
       <c r="AB946" s="6"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -30379,7 +30405,7 @@
       <c r="AA947" s="6"/>
       <c r="AB947" s="6"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -30409,7 +30435,7 @@
       <c r="AA948" s="6"/>
       <c r="AB948" s="6"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -30439,7 +30465,7 @@
       <c r="AA949" s="6"/>
       <c r="AB949" s="6"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
@@ -30469,7 +30495,7 @@
       <c r="AA950" s="6"/>
       <c r="AB950" s="6"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
@@ -30499,7 +30525,7 @@
       <c r="AA951" s="6"/>
       <c r="AB951" s="6"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
@@ -30529,7 +30555,7 @@
       <c r="AA952" s="6"/>
       <c r="AB952" s="6"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
@@ -30559,7 +30585,7 @@
       <c r="AA953" s="6"/>
       <c r="AB953" s="6"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
@@ -30589,7 +30615,7 @@
       <c r="AA954" s="6"/>
       <c r="AB954" s="6"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
@@ -30619,7 +30645,7 @@
       <c r="AA955" s="6"/>
       <c r="AB955" s="6"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
@@ -30649,7 +30675,7 @@
       <c r="AA956" s="6"/>
       <c r="AB956" s="6"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
@@ -30679,7 +30705,7 @@
       <c r="AA957" s="6"/>
       <c r="AB957" s="6"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -30709,7 +30735,7 @@
       <c r="AA958" s="6"/>
       <c r="AB958" s="6"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
@@ -30739,7 +30765,7 @@
       <c r="AA959" s="6"/>
       <c r="AB959" s="6"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
@@ -30769,7 +30795,7 @@
       <c r="AA960" s="6"/>
       <c r="AB960" s="6"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
@@ -30799,7 +30825,7 @@
       <c r="AA961" s="6"/>
       <c r="AB961" s="6"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
@@ -30829,7 +30855,7 @@
       <c r="AA962" s="6"/>
       <c r="AB962" s="6"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
@@ -30859,7 +30885,7 @@
       <c r="AA963" s="6"/>
       <c r="AB963" s="6"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="6"/>
@@ -30889,7 +30915,7 @@
       <c r="AA964" s="6"/>
       <c r="AB964" s="6"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="6"/>
@@ -30919,7 +30945,7 @@
       <c r="AA965" s="6"/>
       <c r="AB965" s="6"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="6"/>
@@ -30949,7 +30975,7 @@
       <c r="AA966" s="6"/>
       <c r="AB966" s="6"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="6"/>
@@ -30979,7 +31005,7 @@
       <c r="AA967" s="6"/>
       <c r="AB967" s="6"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="6"/>
@@ -31009,7 +31035,7 @@
       <c r="AA968" s="6"/>
       <c r="AB968" s="6"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -31039,7 +31065,7 @@
       <c r="AA969" s="6"/>
       <c r="AB969" s="6"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="6"/>
@@ -31069,7 +31095,7 @@
       <c r="AA970" s="6"/>
       <c r="AB970" s="6"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="6"/>
@@ -31099,7 +31125,7 @@
       <c r="AA971" s="6"/>
       <c r="AB971" s="6"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="6"/>
@@ -31129,7 +31155,7 @@
       <c r="AA972" s="6"/>
       <c r="AB972" s="6"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="6"/>
@@ -31159,7 +31185,7 @@
       <c r="AA973" s="6"/>
       <c r="AB973" s="6"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="6"/>
@@ -31189,7 +31215,7 @@
       <c r="AA974" s="6"/>
       <c r="AB974" s="6"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="6"/>
@@ -31219,7 +31245,7 @@
       <c r="AA975" s="6"/>
       <c r="AB975" s="6"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="6"/>
@@ -31249,7 +31275,7 @@
       <c r="AA976" s="6"/>
       <c r="AB976" s="6"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="6"/>
@@ -31279,7 +31305,7 @@
       <c r="AA977" s="6"/>
       <c r="AB977" s="6"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="6"/>
@@ -31309,7 +31335,7 @@
       <c r="AA978" s="6"/>
       <c r="AB978" s="6"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="6"/>
@@ -31339,7 +31365,7 @@
       <c r="AA979" s="6"/>
       <c r="AB979" s="6"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="6"/>
@@ -31369,7 +31395,7 @@
       <c r="AA980" s="6"/>
       <c r="AB980" s="6"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -31399,7 +31425,7 @@
       <c r="AA981" s="6"/>
       <c r="AB981" s="6"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="6"/>
@@ -31429,7 +31455,7 @@
       <c r="AA982" s="6"/>
       <c r="AB982" s="6"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="6"/>
@@ -31459,7 +31485,7 @@
       <c r="AA983" s="6"/>
       <c r="AB983" s="6"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="6"/>
@@ -31489,7 +31515,7 @@
       <c r="AA984" s="6"/>
       <c r="AB984" s="6"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
       <c r="C985" s="6"/>
@@ -31519,7 +31545,7 @@
       <c r="AA985" s="6"/>
       <c r="AB985" s="6"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
       <c r="C986" s="6"/>
@@ -31549,7 +31575,7 @@
       <c r="AA986" s="6"/>
       <c r="AB986" s="6"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
       <c r="C987" s="6"/>
@@ -31579,7 +31605,7 @@
       <c r="AA987" s="6"/>
       <c r="AB987" s="6"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
       <c r="C988" s="6"/>
@@ -31609,7 +31635,7 @@
       <c r="AA988" s="6"/>
       <c r="AB988" s="6"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
       <c r="C989" s="6"/>
@@ -31639,7 +31665,7 @@
       <c r="AA989" s="6"/>
       <c r="AB989" s="6"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
       <c r="C990" s="6"/>
@@ -31669,7 +31695,7 @@
       <c r="AA990" s="6"/>
       <c r="AB990" s="6"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
       <c r="C991" s="6"/>
@@ -31699,7 +31725,7 @@
       <c r="AA991" s="6"/>
       <c r="AB991" s="6"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
       <c r="C992" s="6"/>
@@ -31729,7 +31755,7 @@
       <c r="AA992" s="6"/>
       <c r="AB992" s="6"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -31759,7 +31785,7 @@
       <c r="AA993" s="6"/>
       <c r="AB993" s="6"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
       <c r="C994" s="6"/>
@@ -31789,7 +31815,7 @@
       <c r="AA994" s="6"/>
       <c r="AB994" s="6"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
       <c r="C995" s="6"/>
@@ -31819,7 +31845,7 @@
       <c r="AA995" s="6"/>
       <c r="AB995" s="6"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
       <c r="C996" s="6"/>
@@ -31849,7 +31875,7 @@
       <c r="AA996" s="6"/>
       <c r="AB996" s="6"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="6"/>
@@ -31879,7 +31905,7 @@
       <c r="AA997" s="6"/>
       <c r="AB997" s="6"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
       <c r="C998" s="6"/>
@@ -31909,7 +31935,7 @@
       <c r="AA998" s="6"/>
       <c r="AB998" s="6"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
       <c r="C999" s="6"/>
@@ -31939,7 +31965,7 @@
       <c r="AA999" s="6"/>
       <c r="AB999" s="6"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="6"/>
@@ -31970,14 +31996,13 @@
       <c r="AB1000" s="6"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1000">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PENDING,IN PROGRESS,BLOCKED,PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>